--- a/docs/Requirement.xlsx
+++ b/docs/Requirement.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Project1_TrinhHoangAnh_20172957\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Project1_TrinhHoangAnh_20172957\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076A0E0-37EC-40AC-AF25-53F09BE976A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31FE7AA-03FB-4277-B220-3E6596F88E55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{87D7AC4C-FC0B-4D13-89A3-7E2691096BBF}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{87D7AC4C-FC0B-4D13-89A3-7E2691096BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="báo cáo 1" sheetId="1" r:id="rId1"/>
     <sheet name="Báo cáo 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t xml:space="preserve">Yêu cầu </t>
   </si>
@@ -74,6 +75,21 @@
   </si>
   <si>
     <t xml:space="preserve">do chưa hiểu hết các cú pháp,thư viện... để tạo ra các chức năng cơ bản </t>
+  </si>
+  <si>
+    <t>Báo cáo 3</t>
+  </si>
+  <si>
+    <t>Chỉnh lại cấu trúc file và đẩy lên Github</t>
+  </si>
+  <si>
+    <t>Tìm hiểu về đối tượng mới : RichTextBox</t>
+  </si>
+  <si>
+    <t>sử dụng WMI lấy code áp dụng vào bài trước</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thành</t>
   </si>
 </sst>
 </file>
@@ -577,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CBB617-D252-446F-8051-EB1F7DDB0968}">
   <dimension ref="E1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -661,4 +677,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433CEF51-C170-4898-8A71-62B28AEB690A}">
+  <dimension ref="E4:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="49" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="5:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="5:7" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="E6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E9" s="13">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Requirement.xlsx
+++ b/docs/Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Project1_TrinhHoangAnh_20172957\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31FE7AA-03FB-4277-B220-3E6596F88E55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC568FF-E738-4F14-97C1-08F500767277}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{87D7AC4C-FC0B-4D13-89A3-7E2691096BBF}"/>
   </bookViews>
